--- a/assets/assets/templates/daftar_data_abj.xlsx
+++ b/assets/assets/templates/daftar_data_abj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirza\Projects\sicentangsusi\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A1CF0-3F29-479E-A834-20280CC4A882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B81456D-6404-44BD-9C29-9F016140A697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11640" xr2:uid="{BEBFBE0C-D521-411E-A815-FACD35DB1D74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BEBFBE0C-D521-411E-A815-FACD35DB1D74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No.</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Alamat</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -109,11 +112,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,7 +147,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B54BCE-A70E-44A3-8983-C678D8366800}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -459,20 +485,20 @@
     <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,26 +506,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
